--- a/com.ecom.shoppersstack/src/test/resources/SSTestData.xlsx
+++ b/com.ecom.shoppersstack/src/test/resources/SSTestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulsh\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulsh\git\ProjectAutomation\com.ecom.shoppersstack\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28827DF2-8C88-4A37-A0DA-D1ED29E988FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C94C1C8-06E8-4469-B661-699F7B7CD569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{52C4FEAF-1168-4E77-A026-2017DF5A3D00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{52C4FEAF-1168-4E77-A026-2017DF5A3D00}"/>
   </bookViews>
   <sheets>
     <sheet name="loginCred" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -46,6 +47,18 @@
   </si>
   <si>
     <t>Gulshan@123</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>amansingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Aman@123</t>
   </si>
 </sst>
 </file>
@@ -105,7 +118,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0A78EB-2E8D-42A2-B2A1-7C437EF77E57}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,4 +464,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF341FF8-6318-48FC-8799-C92A286A21C9}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>